--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B04309-69CF-4AE7-B8CE-92FEC37FEBB3}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA400690-220D-4399-90B0-986815E2ADF3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,47 +82,110 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>wrong token</t>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token hidden error</t>
+  </si>
+  <si>
+    <t>invalid token</t>
+  </si>
+  <si>
+    <t>expired token</t>
+  </si>
+  <si>
+    <t>stateId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>modules/jwt.verify</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrong token</t>
-  </si>
-  <si>
-    <t>wrong token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>response</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>토큰이 만료되었습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유효하지 않은 토큰입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>token hidden error</t>
-  </si>
-  <si>
-    <t>invalid token</t>
-  </si>
-  <si>
-    <t>expired token</t>
-  </si>
-  <si>
-    <t>stateId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authId</t>
+  </si>
+  <si>
+    <t>modules/permission.createPermission</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>bulkCreate</t>
+  </si>
+  <si>
+    <t>modules/user_password.logUp</t>
+  </si>
+  <si>
+    <t>생성실패</t>
+  </si>
+  <si>
+    <t>UserPermissionCreate Error</t>
+  </si>
+  <si>
+    <t>modules/user_password.logIn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrongInput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emty_Input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>different password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번틀림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user_search.all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user_search.choice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user_search.search_init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user_search.search_include</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduler/user_update.patch_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduler/user_update.patch_info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -518,16 +581,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="48.59765625" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -559,16 +622,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -579,16 +642,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>419</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -599,16 +662,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>401</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -619,21 +682,256 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>400</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -652,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA400690-220D-4399-90B0-986815E2ADF3}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D264B378-6EFD-427F-A174-9AC1A8A1B2ED}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>stateId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -583,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>400</v>
@@ -642,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>419</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -662,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>401</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -682,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>400</v>
@@ -699,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -716,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>400</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -733,13 +729,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -750,13 +746,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -767,16 +763,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -787,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>400</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -805,16 +801,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -825,16 +821,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>400</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -845,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -859,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -874,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>400</v>
@@ -888,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -902,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -916,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -937,44 +933,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279200-1977-43D4-AD14-060D07B2F8C2}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="b">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D264B378-6EFD-427F-A174-9AC1A8A1B2ED}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97F0B67-6B66-4177-B2B6-35153B295181}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21624" windowHeight="11244" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
     <sheet name="ErrorMessages" sheetId="4" r:id="rId2"/>
     <sheet name="Permissions" sheetId="3" r:id="rId3"/>
+    <sheet name="API" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,6 +183,56 @@
   </si>
   <si>
     <t>moduler/user_update.patch_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apiId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/user/ids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_api/permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>api not found (no match entry-point)</t>
+  </si>
+  <si>
+    <t>존재하지 않는 api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+B2:B21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,6 +265,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,12 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -577,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -614,8 +673,8 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -876,7 +935,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="b">
         <v>0</v>
       </c>
@@ -890,7 +949,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="b">
         <v>0</v>
       </c>
@@ -904,7 +963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="b">
         <v>0</v>
       </c>
@@ -918,11 +977,48 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="1"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>401.1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>404</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -933,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279200-1977-43D4-AD14-060D07B2F8C2}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -965,6 +1061,99 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D7948-5FAD-4C0C-B1FB-544C8C77BB1B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97F0B67-6B66-4177-B2B6-35153B295181}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353713B4-3B64-4D3D-8E7D-9850C8D9EA2F}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21624" windowHeight="11244" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,9 +116,6 @@
     <t>유효하지 않은 토큰입니다</t>
   </si>
   <si>
-    <t>modules/permission.createPermission</t>
-  </si>
-  <si>
     <t>destroy</t>
   </si>
   <si>
@@ -233,6 +230,42 @@
   </si>
   <si>
     <t>1+B2:B21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/error_message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/DB/error_message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH/DB/error_message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/permission/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/permission/api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/permission.createPermissionAPI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/permission.createPermissionUser</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -647,6 +680,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="48.59765625" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -674,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -753,14 +787,14 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -770,14 +804,14 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D7">
         <v>400</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -788,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -805,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -822,16 +856,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -842,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>400</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -860,16 +894,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -880,16 +914,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>400</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -900,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -914,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -929,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>400</v>
@@ -943,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -957,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -971,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -985,16 +1019,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>401.1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1005,16 +1039,70 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>404</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1066,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1077,15 +1165,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D7948-5FAD-4C0C-B1FB-544C8C77BB1B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -1093,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1104,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1115,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1126,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1137,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1148,10 +1236,76 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_2E8F6F78A56906AE739E887464DCC40DD82B21BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353713B4-3B64-4D3D-8E7D-9850C8D9EA2F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D41B787-94AD-4676-8831-A4BEB72FC323}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,14 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>POST/DB/error_message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PATCH/DB/error_message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/permission/user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,6 +258,26 @@
   </si>
   <si>
     <t>modules/permission.createPermissionUser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/permission/api/DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH/permission/api/DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/error_message/DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH/error_message/DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/permission/api/DB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +684,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -788,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -805,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -1059,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1079,7 +1091,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1096,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -1120,7 +1132,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1165,15 +1177,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D7948-5FAD-4C0C-B1FB-544C8C77BB1B}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -1269,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
@@ -1280,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -1291,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -1302,10 +1314,54 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D41B787-94AD-4676-8831-A4BEB72FC323}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13400279-0CE5-471D-B684-1C6E31650674}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" sheetId="2" r:id="rId1"/>
+    <sheet name="Status" sheetId="6" r:id="rId1"/>
     <sheet name="ErrorMessages" sheetId="4" r:id="rId2"/>
     <sheet name="Permissions" sheetId="3" r:id="rId3"/>
     <sheet name="API" sheetId="5" r:id="rId4"/>
+    <sheet name="Status_1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,6 +279,10 @@
   </si>
   <si>
     <t>GET/permission/api/DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -620,62 +625,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A70233-D52E-4397-96AB-A873070A9064}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CF54BD-6A96-4857-852A-D5B80E62C6E3}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="b">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1129,9 +1123,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279200-1977-43D4-AD14-060D07B2F8C2}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1167,6 +1161,11 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1179,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D7948-5FAD-4C0C-B1FB-544C8C77BB1B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1368,4 +1367,64 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A70233-D52E-4397-96AB-A873070A9064}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13400279-0CE5-471D-B684-1C6E31650674}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7085D0DE-9B2A-43A3-AE9E-10755163CD40}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -282,7 +282,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,3</t>
+    <t>modules/article.createArticle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1111,6 +1111,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E26" s="1"/>
     </row>
@@ -1125,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279200-1977-43D4-AD14-060D07B2F8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1164,9 +1184,7 @@
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F24" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1179,7 +1197,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7085D0DE-9B2A-43A3-AE9E-10755163CD40}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED939AB-43B2-44D0-A12C-2759616E4F57}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,10 +227,6 @@
   </si>
   <si>
     <t>존재하지 않는 api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+B2:B21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -365,10 +361,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -713,8 +705,8 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -794,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -811,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -1065,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -1085,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1102,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -1119,7 +1111,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>400</v>
@@ -1287,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1298,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -1309,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1320,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -1331,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -1342,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -1353,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1364,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -1375,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CED939AB-43B2-44D0-A12C-2759616E4F57}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2762CEE9-39AC-4C64-83C4-77713A4A997D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>modules/article.createArticle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modeuls/article.patchArticle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Found Article Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>different creater</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -361,6 +373,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1124,7 +1140,38 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E26" s="1"/>
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>400</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>400</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2762CEE9-39AC-4C64-83C4-77713A4A997D}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A2F42A-34E3-4AD0-B7C0-DAA62066BB68}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="6" r:id="rId1"/>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1235,189 +1235,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D7948-5FAD-4C0C-B1FB-544C8C77BB1B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.69921875" customWidth="1"/>
+    <col min="1" max="1" width="28.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="b">
-        <v>0</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="b">
-        <v>0</v>
+      <c r="A8" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="b">
-        <v>0</v>
+      <c r="A9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="b">
-        <v>0</v>
+      <c r="A10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="b">
-        <v>0</v>
+      <c r="A11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="b">
-        <v>0</v>
+      <c r="A12" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="b">
-        <v>0</v>
+      <c r="A13" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
+      <c r="C16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A2F42A-34E3-4AD0-B7C0-DAA62066BB68}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F77F24A-E426-4331-9EC5-11CD5905EA51}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="6" r:id="rId1"/>
@@ -123,19 +123,12 @@
     <t>bulkCreate</t>
   </si>
   <si>
-    <t>modules/user_password.logUp</t>
-  </si>
-  <si>
     <t>생성실패</t>
   </si>
   <si>
     <t>UserPermissionCreate Error</t>
   </si>
   <si>
-    <t>modules/user_password.logIn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wrongInput</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,30 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>modules/user_search.all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modules/user_search.choice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modules/user_search.search_init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>modules/user_search.search_include</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduler/user_update.patch_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduler/user_update.patch_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>apiId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,6 +260,38 @@
   </si>
   <si>
     <t>different creater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.password.logUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.password.logIn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduler/user.update.patch_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduler/user.update.patch_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.search.search_include</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.search.search_init</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.search.choice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.search.all</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -802,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -819,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -835,14 +836,14 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -852,14 +853,14 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -870,16 +871,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>400</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -890,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11">
-        <v>400</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -908,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -928,16 +929,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>400</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -948,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>400</v>
@@ -962,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -977,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>400</v>
@@ -991,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -1005,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>400</v>
@@ -1019,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -1033,16 +1034,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>401.1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1053,16 +1054,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>404</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1073,16 +1074,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>400</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1093,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1110,7 +1111,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -1127,16 +1128,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>400</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1147,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>400</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1164,13 +1165,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>400</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.4">
@@ -1235,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4D7948-5FAD-4C0C-B1FB-544C8C77BB1B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1246,7 +1247,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1257,10 +1258,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1268,10 +1269,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1279,7 +1280,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1290,7 +1291,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1301,7 +1302,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1312,7 +1313,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1323,10 +1324,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1334,10 +1335,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1345,10 +1346,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1356,10 +1357,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1367,10 +1368,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1378,7 +1379,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -1389,7 +1390,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -1400,7 +1401,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -1411,7 +1412,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F77F24A-E426-4331-9EC5-11CD5905EA51}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C814012-0E77-4179-A4D4-05AD925A8A1B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5424" yWindow="2448" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>modeuls/article.patchArticle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Not Found Article Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -292,6 +288,38 @@
   </si>
   <si>
     <t>modules/user.search.all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB쪽 오류가능성 높음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/article.patchArticle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.user.disactive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modulse/user.User.patch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email,password 미변동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modulse/user.UserInfo.patch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday,intro 미변동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +666,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -684,494 +712,468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="48.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="48.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>419</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>401</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>400</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="b">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>419</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>401</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>401.1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>404</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>400</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>400</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>400</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>400</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>400</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>400</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>400</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>400</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>401.1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>404</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22">
-        <v>400</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>400</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25">
-        <v>400</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26">
-        <v>400</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27">
-        <v>400</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>58</v>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C814012-0E77-4179-A4D4-05AD925A8A1B}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D62A624-5728-45CA-B98F-5B25207DC535}"/>
   <bookViews>
     <workbookView xWindow="5424" yWindow="2448" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>birthday,intro 미변동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.User.LogUp- create user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modules/user.User.LogUp- create user_permission</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -868,10 +872,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -882,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>400</v>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D62A624-5728-45CA-B98F-5B25207DC535}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB66E0A-A686-41C2-9A60-ACCA83116689}"/>
   <bookViews>
     <workbookView xWindow="5424" yWindow="2448" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>migration</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -328,6 +328,14 @@
   </si>
   <si>
     <t>modules/user.User.LogUp- create user_permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modulse/user.User.logIn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleted</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,6 +418,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,7 +682,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -716,10 +728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1178,6 +1190,20 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e62788ad37f281/바탕 화면/projects/work/node_server/seeders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakep\OneDrive\바탕 화면\projects\work\node_server\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="14_{5957F28C-072E-408C-B7BF-6C8D4581D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB66E0A-A686-41C2-9A60-ACCA83116689}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2272C5C-9AEF-4624-A08D-A7681B05A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="2448" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="6" r:id="rId1"/>
     <sheet name="ErrorMessages" sheetId="4" r:id="rId2"/>
     <sheet name="Permissions" sheetId="3" r:id="rId3"/>
-    <sheet name="API" sheetId="5" r:id="rId4"/>
-    <sheet name="Status_1" sheetId="2" r:id="rId5"/>
+    <sheet name="PermissionApi" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
-  <si>
-    <t>migration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>stateName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>at</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,10 +95,6 @@
     <t>expired token</t>
   </si>
   <si>
-    <t>stateId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>modules/jwt.verify</t>
   </si>
   <si>
@@ -153,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>apiId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -336,6 +319,26 @@
   </si>
   <si>
     <t>deleted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apiName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permissionApiPk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>permissionPk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorMessagePk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>statePk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +421,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,41 +681,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="b">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -730,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -744,19 +743,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -764,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -777,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>400</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -794,16 +793,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>419</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -811,16 +810,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>401</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -828,13 +827,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -842,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -856,13 +855,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -870,13 +869,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -884,13 +883,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>400</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -898,16 +897,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -915,13 +914,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>400</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -930,16 +929,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>400</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -947,16 +946,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>400</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -964,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>400</v>
@@ -975,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>400</v>
@@ -987,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>400</v>
@@ -998,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>400</v>
@@ -1009,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>400</v>
@@ -1020,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>400</v>
@@ -1031,16 +1030,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>401.1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1048,16 +1047,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>404</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1065,16 +1064,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>400</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1082,13 +1081,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>400</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1096,13 +1095,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>400</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1110,16 +1109,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>400</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1127,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>400</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1141,13 +1140,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28">
         <v>400</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1155,13 +1154,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>400</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1169,13 +1168,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>400</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1183,13 +1182,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>400</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1197,13 +1196,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>400</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1217,42 +1216,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279200-1977-43D4-AD14-060D07B2F8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="b">
-        <v>0</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.4">
@@ -1269,7 +1268,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1279,21 +1278,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1301,10 +1300,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1312,10 +1311,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1323,10 +1322,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1334,10 +1333,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1345,10 +1344,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1356,10 +1355,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1367,10 +1366,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1378,10 +1377,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1389,10 +1388,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1400,10 +1399,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1411,10 +1410,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1422,10 +1421,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1433,10 +1432,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1444,73 +1443,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A70233-D52E-4397-96AB-A873070A9064}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakep\OneDrive\바탕 화면\projects\work\node_server\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2272C5C-9AEF-4624-A08D-A7681B05A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B87887-ED3C-4E59-9F68-5EF28CC097D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>stateName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>statePk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>router/all_api.ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip 다름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB3323-D0E3-45B1-AD6D-E98237329D30}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1205,6 +1213,20 @@
         <v>73</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33">
+        <v>400</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85279200-1977-43D4-AD14-060D07B2F8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/seeders/seed_data.xlsx
+++ b/seeders/seed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakep\OneDrive\바탕 화면\projects\work\node_server\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B87887-ED3C-4E59-9F68-5EF28CC097D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1768FA8C-745F-4112-8336-707FA24B39E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
